--- a/data/output/FV2304_FV2210/PARTIN/37000.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37000.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6752" uniqueCount="288">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6773" uniqueCount="288">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1013,6 +1013,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U311" totalsRowShown="0">
+  <autoFilter ref="A1:U311"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1302,7 +1332,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15678,5 +15711,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/PARTIN/37000.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8108" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="593">
   <si>
     <t>#</t>
   </si>
@@ -3453,50 +3453,48 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3528,9 +3526,7 @@
         <v>240</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>27</v>
       </c>
@@ -3582,9 +3578,7 @@
         <v>245</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="5" t="s">
         <v>27</v>
       </c>
@@ -3636,9 +3630,7 @@
         <v>240</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -3859,44 +3851,42 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V33" s="5"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3920,9 +3910,7 @@
         <v>239</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
@@ -3970,9 +3958,7 @@
         <v>240</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>29</v>
       </c>
@@ -4026,9 +4012,7 @@
       <c r="K36" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>29</v>
       </c>
@@ -4082,9 +4066,7 @@
         <v>240</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>29</v>
       </c>
@@ -4138,9 +4120,7 @@
         <v>240</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>29</v>
       </c>
@@ -4167,44 +4147,42 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M39" s="5" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="V39" s="5"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="5" t="s">
@@ -4228,9 +4206,7 @@
         <v>239</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>30</v>
       </c>
@@ -4278,9 +4254,7 @@
         <v>240</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>30</v>
       </c>
@@ -4332,9 +4306,7 @@
         <v>240</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>30</v>
       </c>
@@ -4359,48 +4331,46 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M43" s="5" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -4430,9 +4400,7 @@
       <c r="K44" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>31</v>
       </c>
@@ -4486,9 +4454,7 @@
         <v>249</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>31</v>
       </c>
@@ -4542,9 +4508,7 @@
         <v>249</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>31</v>
       </c>
@@ -4598,9 +4562,7 @@
         <v>249</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="5" t="s">
         <v>31</v>
       </c>
@@ -4654,9 +4616,7 @@
         <v>249</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>31</v>
       </c>
@@ -4710,9 +4670,7 @@
         <v>249</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>31</v>
       </c>
@@ -4739,44 +4697,42 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V50" s="5"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -4800,9 +4756,7 @@
         <v>239</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>32</v>
       </c>
@@ -4850,9 +4804,7 @@
         <v>240</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4906,9 +4858,7 @@
       <c r="K53" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>32</v>
       </c>
@@ -4962,9 +4912,7 @@
         <v>240</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -5018,9 +4966,7 @@
         <v>240</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>32</v>
       </c>
@@ -5047,44 +4993,42 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5" t="s">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -5112,9 +5056,7 @@
         <v>240</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -5139,46 +5081,44 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
+      <c r="C58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M58" s="5" t="s">
+      <c r="L58" s="4"/>
+      <c r="M58" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5" t="s">
+      <c r="N58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V58" s="5" t="s">
+      <c r="V58" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5204,9 +5144,7 @@
         <v>239</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>34</v>
       </c>
@@ -5254,9 +5192,7 @@
         <v>240</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>34</v>
       </c>
@@ -5308,9 +5244,7 @@
         <v>240</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>34</v>
       </c>
@@ -5362,9 +5296,7 @@
         <v>240</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>34</v>
       </c>
@@ -5416,9 +5348,7 @@
         <v>240</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>34</v>
       </c>
@@ -5468,9 +5398,7 @@
         <v>240</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>34</v>
       </c>
@@ -5522,9 +5450,7 @@
       <c r="K65" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>34</v>
       </c>
@@ -5576,9 +5502,7 @@
         <v>240</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>34</v>
       </c>
@@ -5603,48 +5527,46 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="K67" s="2"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O67" s="5" t="s">
+      <c r="N67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V67" s="5"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -6367,48 +6289,46 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="C84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="K84" s="2"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O84" s="5" t="s">
+      <c r="N84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V84" s="5"/>
+      <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -6438,9 +6358,7 @@
         <v>240</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>38</v>
       </c>
@@ -6492,9 +6410,7 @@
         <v>240</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>38</v>
       </c>
@@ -6519,50 +6435,48 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K87" s="5" t="s">
+      <c r="K87" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L87" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M87" s="5" t="s">
+      <c r="L87" s="4"/>
+      <c r="M87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N87" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O87" s="5" t="s">
+      <c r="N87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V87" s="5" t="s">
+      <c r="V87" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6594,9 +6508,7 @@
         <v>240</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6648,9 +6560,7 @@
         <v>240</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>39</v>
       </c>
@@ -6700,9 +6610,7 @@
         <v>240</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>39</v>
       </c>
@@ -6727,46 +6635,44 @@
       <c r="V90" s="5"/>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K91" s="5" t="s">
+      <c r="K91" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M91" s="5" t="s">
+      <c r="L91" s="4"/>
+      <c r="M91" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V91" s="5" t="s">
+      <c r="V91" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6792,9 +6698,7 @@
         <v>239</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -6842,9 +6746,7 @@
         <v>257</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
@@ -6898,9 +6800,7 @@
         <v>258</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
@@ -6952,9 +6852,7 @@
         <v>240</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>40</v>
       </c>
@@ -6979,48 +6877,46 @@
       <c r="V95" s="5"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N96" s="5" t="s">
+      <c r="N96" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O96" s="5" t="s">
+      <c r="O96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="V96" s="5"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -7050,9 +6946,7 @@
         <v>240</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>41</v>
       </c>
@@ -7106,9 +7000,7 @@
       <c r="K98" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L98" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>41</v>
       </c>
@@ -7135,44 +7027,42 @@
       </c>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5" t="s">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M99" s="5" t="s">
+      <c r="K99" s="2"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5" t="s">
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V99" s="5"/>
+      <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -7196,9 +7086,7 @@
         <v>239</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>42</v>
       </c>
@@ -7246,9 +7134,7 @@
         <v>240</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>42</v>
       </c>
@@ -7275,48 +7161,46 @@
       <c r="V101" s="5"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5" t="s">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M102" s="5" t="s">
+      <c r="K102" s="2"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="N102" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O102" s="5" t="s">
+      <c r="O102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5" t="s">
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V102" s="5"/>
+      <c r="V102" s="2"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -7346,9 +7230,7 @@
         <v>252</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>43</v>
       </c>
@@ -7402,9 +7284,7 @@
         <v>252</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>43</v>
       </c>
@@ -7458,9 +7338,7 @@
         <v>252</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>43</v>
       </c>
@@ -7514,9 +7392,7 @@
         <v>252</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>43</v>
       </c>
@@ -7570,9 +7446,7 @@
         <v>252</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>43</v>
       </c>
@@ -7626,9 +7500,7 @@
         <v>249</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>43</v>
       </c>
@@ -7682,9 +7554,7 @@
       <c r="K109" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="L109" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>43</v>
       </c>
@@ -7738,9 +7608,7 @@
         <v>240</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>43</v>
       </c>
@@ -7767,46 +7635,44 @@
       <c r="V110" s="5"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="s">
+      <c r="C111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K111" s="5" t="s">
+      <c r="K111" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L111" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M111" s="5" t="s">
+      <c r="L111" s="4"/>
+      <c r="M111" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N111" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5" t="s">
+      <c r="N111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V111" s="5" t="s">
+      <c r="V111" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7832,9 +7698,7 @@
         <v>239</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>44</v>
       </c>
@@ -7882,9 +7746,7 @@
         <v>240</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>44</v>
       </c>
@@ -7938,9 +7800,7 @@
       <c r="K114" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L114" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>44</v>
       </c>
@@ -7994,9 +7854,7 @@
         <v>240</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>44</v>
       </c>
@@ -8048,9 +7906,7 @@
         <v>240</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>44</v>
       </c>
@@ -8100,9 +7956,7 @@
         <v>240</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>44</v>
       </c>
@@ -8208,9 +8062,7 @@
         <v>240</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>44</v>
       </c>
@@ -8235,44 +8087,42 @@
       <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="C120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M120" s="5" t="s">
+      <c r="K120" s="2"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N120" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="N120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -8296,9 +8146,7 @@
         <v>239</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>30</v>
       </c>
@@ -8346,9 +8194,7 @@
         <v>240</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>30</v>
       </c>
@@ -8402,9 +8248,7 @@
       <c r="K123" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L123" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>30</v>
       </c>
@@ -8431,48 +8275,46 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="C124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M124" s="5" t="s">
+      <c r="K124" s="2"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N124" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O124" s="5" t="s">
+      <c r="N124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O124" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5" t="s">
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V124" s="5"/>
+      <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="5" t="s">
@@ -8502,9 +8344,7 @@
       <c r="K125" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L125" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>31</v>
       </c>
@@ -8558,9 +8398,7 @@
         <v>252</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>31</v>
       </c>
@@ -8614,9 +8452,7 @@
         <v>252</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>31</v>
       </c>
@@ -8670,9 +8506,7 @@
         <v>249</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>31</v>
       </c>
@@ -8699,46 +8533,44 @@
       <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="C129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K129" s="5" t="s">
+      <c r="K129" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L129" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N129" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="N129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V129" s="5" t="s">
+      <c r="V129" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8764,9 +8596,7 @@
         <v>239</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>45</v>
       </c>
@@ -8814,9 +8644,7 @@
         <v>240</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>45</v>
       </c>
@@ -8870,9 +8698,7 @@
       <c r="K132" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>45</v>
       </c>
@@ -8926,9 +8752,7 @@
         <v>240</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>45</v>
       </c>
@@ -8980,9 +8804,7 @@
         <v>240</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>45</v>
       </c>
@@ -9032,9 +8854,7 @@
         <v>240</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>45</v>
       </c>
@@ -9140,9 +8960,7 @@
         <v>240</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>45</v>
       </c>
@@ -9167,44 +8985,42 @@
       <c r="V137" s="5"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5" t="s">
+      <c r="C138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M138" s="5" t="s">
+      <c r="K138" s="2"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N138" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5" t="s">
+      <c r="N138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V138" s="5"/>
+      <c r="V138" s="2"/>
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="5" t="s">
@@ -9228,9 +9044,7 @@
         <v>239</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>30</v>
       </c>
@@ -9278,9 +9092,7 @@
         <v>240</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>30</v>
       </c>
@@ -9334,9 +9146,7 @@
       <c r="K141" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L141" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>30</v>
       </c>
@@ -9363,48 +9173,46 @@
       </c>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D142" s="5" t="s">
+      <c r="C142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M142" s="5" t="s">
+      <c r="K142" s="2"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N142" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O142" s="5" t="s">
+      <c r="N142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O142" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5" t="s">
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V142" s="5"/>
+      <c r="V142" s="2"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
@@ -9434,9 +9242,7 @@
       <c r="K143" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>31</v>
       </c>
@@ -9490,9 +9296,7 @@
         <v>252</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>31</v>
       </c>
@@ -9546,9 +9350,7 @@
         <v>252</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>31</v>
       </c>
@@ -9602,9 +9404,7 @@
         <v>249</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>31</v>
       </c>
@@ -9631,46 +9431,44 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="C147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K147" s="5" t="s">
+      <c r="K147" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="L147" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M147" s="5" t="s">
+      <c r="L147" s="4"/>
+      <c r="M147" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N147" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="N147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="V147" s="5" t="s">
+      <c r="V147" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9696,9 +9494,7 @@
         <v>239</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>46</v>
       </c>
@@ -9746,9 +9542,7 @@
         <v>240</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>46</v>
       </c>
@@ -9802,9 +9596,7 @@
       <c r="K150" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L150" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>46</v>
       </c>
@@ -9858,9 +9650,7 @@
         <v>240</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>46</v>
       </c>
@@ -9912,9 +9702,7 @@
         <v>240</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>46</v>
       </c>
@@ -9964,9 +9752,7 @@
         <v>240</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>46</v>
       </c>
@@ -10018,9 +9804,7 @@
       <c r="K154" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L154" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>46</v>
       </c>
@@ -10072,9 +9856,7 @@
         <v>240</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>46</v>
       </c>
@@ -10099,44 +9881,42 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
+      <c r="C156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M156" s="5" t="s">
+      <c r="K156" s="2"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N156" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5" t="s">
+      <c r="N156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V156" s="5"/>
+      <c r="V156" s="2"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -10160,9 +9940,7 @@
         <v>239</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>30</v>
       </c>
@@ -10210,9 +9988,7 @@
         <v>240</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>30</v>
       </c>
@@ -10266,9 +10042,7 @@
       <c r="K159" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L159" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>30</v>
       </c>
@@ -10295,48 +10069,46 @@
       </c>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D160" s="5" t="s">
+      <c r="C160" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M160" s="5" t="s">
+      <c r="K160" s="2"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N160" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O160" s="5" t="s">
+      <c r="N160" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O160" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V160" s="5"/>
+      <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -10366,9 +10138,7 @@
       <c r="K161" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L161" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>31</v>
       </c>
@@ -10422,9 +10192,7 @@
         <v>252</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>31</v>
       </c>
@@ -10478,9 +10246,7 @@
         <v>252</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>31</v>
       </c>
@@ -10534,9 +10300,7 @@
         <v>249</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>31</v>
       </c>
@@ -10563,46 +10327,44 @@
       <c r="V164" s="5"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5" t="s">
+      <c r="C165" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K165" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M165" s="5" t="s">
+      <c r="L165" s="4"/>
+      <c r="M165" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N165" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
-      <c r="U165" s="5" t="s">
+      <c r="N165" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V165" s="5" t="s">
+      <c r="V165" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -10628,9 +10390,7 @@
         <v>239</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>47</v>
       </c>
@@ -10678,9 +10438,7 @@
         <v>240</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>47</v>
       </c>
@@ -10734,9 +10492,7 @@
       <c r="K168" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L168" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>47</v>
       </c>
@@ -10790,9 +10546,7 @@
         <v>240</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>47</v>
       </c>
@@ -10844,9 +10598,7 @@
         <v>240</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>47</v>
       </c>
@@ -10896,9 +10648,7 @@
         <v>240</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>47</v>
       </c>
@@ -10950,9 +10700,7 @@
       <c r="K172" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L172" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>47</v>
       </c>
@@ -11004,9 +10752,7 @@
         <v>240</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>47</v>
       </c>
@@ -11031,44 +10777,42 @@
       <c r="V173" s="5"/>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C174" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5" t="s">
+      <c r="C174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M174" s="5" t="s">
+      <c r="K174" s="2"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N174" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-      <c r="U174" s="5" t="s">
+      <c r="N174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V174" s="5"/>
+      <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="5" t="s">
@@ -11092,9 +10836,7 @@
         <v>239</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>30</v>
       </c>
@@ -11142,9 +10884,7 @@
         <v>240</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>30</v>
       </c>
@@ -11198,9 +10938,7 @@
       <c r="K177" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L177" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>30</v>
       </c>
@@ -11227,48 +10965,46 @@
       </c>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D178" s="5" t="s">
+      <c r="C178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5" t="s">
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M178" s="5" t="s">
+      <c r="K178" s="2"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N178" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O178" s="5" t="s">
+      <c r="N178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O178" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5" t="s">
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V178" s="5"/>
+      <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="5" t="s">
@@ -11298,9 +11034,7 @@
       <c r="K179" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L179" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>31</v>
       </c>
@@ -11354,9 +11088,7 @@
         <v>252</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>31</v>
       </c>
@@ -11410,9 +11142,7 @@
         <v>252</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>31</v>
       </c>
@@ -11466,9 +11196,7 @@
         <v>249</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>31</v>
       </c>
@@ -11495,46 +11223,44 @@
       <c r="V182" s="5"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5" t="s">
+      <c r="C183" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K183" s="5" t="s">
+      <c r="K183" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L183" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M183" s="5" t="s">
+      <c r="L183" s="4"/>
+      <c r="M183" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N183" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O183" s="5"/>
-      <c r="P183" s="5"/>
-      <c r="Q183" s="5"/>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5" t="s">
+      <c r="N183" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V183" s="5" t="s">
+      <c r="V183" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11560,9 +11286,7 @@
         <v>239</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>48</v>
       </c>
@@ -11610,9 +11334,7 @@
         <v>240</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>48</v>
       </c>
@@ -11666,9 +11388,7 @@
       <c r="K186" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L186" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>48</v>
       </c>
@@ -11722,9 +11442,7 @@
         <v>240</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>48</v>
       </c>
@@ -11776,9 +11494,7 @@
         <v>240</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>48</v>
       </c>
@@ -11828,9 +11544,7 @@
         <v>240</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>48</v>
       </c>
@@ -11882,9 +11596,7 @@
       <c r="K190" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L190" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>48</v>
       </c>
@@ -11936,9 +11648,7 @@
         <v>240</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>48</v>
       </c>
@@ -11963,44 +11673,42 @@
       <c r="V191" s="5"/>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5" t="s">
+      <c r="C192" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M192" s="5" t="s">
+      <c r="K192" s="2"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N192" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O192" s="5"/>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5" t="s">
+      <c r="N192" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V192" s="5"/>
+      <c r="V192" s="2"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="5" t="s">
@@ -12024,9 +11732,7 @@
         <v>239</v>
       </c>
       <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>30</v>
       </c>
@@ -12074,9 +11780,7 @@
         <v>240</v>
       </c>
       <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>30</v>
       </c>
@@ -12130,9 +11834,7 @@
       <c r="K195" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L195" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>30</v>
       </c>
@@ -12159,48 +11861,46 @@
       </c>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="C196" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5" t="s">
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M196" s="5" t="s">
+      <c r="K196" s="2"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N196" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O196" s="5" t="s">
+      <c r="N196" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O196" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5" t="s">
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V196" s="5"/>
+      <c r="V196" s="2"/>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="5" t="s">
@@ -12230,9 +11930,7 @@
       <c r="K197" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L197" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>31</v>
       </c>
@@ -12286,9 +11984,7 @@
         <v>252</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>31</v>
       </c>
@@ -12342,9 +12038,7 @@
         <v>252</v>
       </c>
       <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="5" t="s">
         <v>31</v>
       </c>
@@ -12398,9 +12092,7 @@
         <v>249</v>
       </c>
       <c r="K200" s="5"/>
-      <c r="L200" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L200" s="4"/>
       <c r="M200" s="5" t="s">
         <v>31</v>
       </c>
@@ -12427,46 +12119,44 @@
       <c r="V200" s="5"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5" t="s">
+      <c r="C201" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K201" s="5" t="s">
+      <c r="K201" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L201" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M201" s="5" t="s">
+      <c r="L201" s="4"/>
+      <c r="M201" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N201" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="5"/>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
-      <c r="U201" s="5" t="s">
+      <c r="N201" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V201" s="5" t="s">
+      <c r="V201" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12492,9 +12182,7 @@
         <v>239</v>
       </c>
       <c r="K202" s="5"/>
-      <c r="L202" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L202" s="4"/>
       <c r="M202" s="5" t="s">
         <v>49</v>
       </c>
@@ -12542,9 +12230,7 @@
         <v>240</v>
       </c>
       <c r="K203" s="5"/>
-      <c r="L203" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L203" s="4"/>
       <c r="M203" s="5" t="s">
         <v>49</v>
       </c>
@@ -12598,9 +12284,7 @@
       <c r="K204" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L204" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L204" s="4"/>
       <c r="M204" s="5" t="s">
         <v>49</v>
       </c>
@@ -12654,9 +12338,7 @@
         <v>240</v>
       </c>
       <c r="K205" s="5"/>
-      <c r="L205" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L205" s="4"/>
       <c r="M205" s="5" t="s">
         <v>49</v>
       </c>
@@ -12708,9 +12390,7 @@
         <v>240</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>49</v>
       </c>
@@ -12760,9 +12440,7 @@
         <v>240</v>
       </c>
       <c r="K207" s="5"/>
-      <c r="L207" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L207" s="4"/>
       <c r="M207" s="5" t="s">
         <v>49</v>
       </c>
@@ -12868,9 +12546,7 @@
         <v>240</v>
       </c>
       <c r="K209" s="5"/>
-      <c r="L209" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="5" t="s">
         <v>49</v>
       </c>
@@ -12895,44 +12571,42 @@
       <c r="V209" s="5"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5" t="s">
+      <c r="C210" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K210" s="5"/>
-      <c r="L210" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M210" s="5" t="s">
+      <c r="K210" s="2"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N210" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O210" s="5"/>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5" t="s">
+      <c r="N210" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V210" s="5"/>
+      <c r="V210" s="2"/>
     </row>
     <row r="211" spans="1:22">
       <c r="A211" s="5" t="s">
@@ -12956,9 +12630,7 @@
         <v>239</v>
       </c>
       <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L211" s="4"/>
       <c r="M211" s="5" t="s">
         <v>30</v>
       </c>
@@ -13006,9 +12678,7 @@
         <v>240</v>
       </c>
       <c r="K212" s="5"/>
-      <c r="L212" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L212" s="4"/>
       <c r="M212" s="5" t="s">
         <v>30</v>
       </c>
@@ -13062,9 +12732,7 @@
       <c r="K213" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L213" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L213" s="4"/>
       <c r="M213" s="5" t="s">
         <v>30</v>
       </c>
@@ -13091,48 +12759,46 @@
       </c>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D214" s="5" t="s">
+      <c r="C214" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5" t="s">
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M214" s="5" t="s">
+      <c r="K214" s="2"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N214" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O214" s="5" t="s">
+      <c r="N214" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O214" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P214" s="5"/>
-      <c r="Q214" s="5"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
-      <c r="U214" s="5" t="s">
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V214" s="5"/>
+      <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22">
       <c r="A215" s="5" t="s">
@@ -13162,9 +12828,7 @@
       <c r="K215" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L215" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>31</v>
       </c>
@@ -13218,9 +12882,7 @@
         <v>252</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L216" s="4"/>
       <c r="M216" s="5" t="s">
         <v>31</v>
       </c>
@@ -13274,9 +12936,7 @@
         <v>252</v>
       </c>
       <c r="K217" s="5"/>
-      <c r="L217" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L217" s="4"/>
       <c r="M217" s="5" t="s">
         <v>31</v>
       </c>
@@ -13330,9 +12990,7 @@
         <v>249</v>
       </c>
       <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L218" s="4"/>
       <c r="M218" s="5" t="s">
         <v>31</v>
       </c>
@@ -13359,46 +13017,44 @@
       <c r="V218" s="5"/>
     </row>
     <row r="219" spans="1:22">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="5" t="s">
+      <c r="C219" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K219" s="5" t="s">
+      <c r="K219" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L219" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M219" s="5" t="s">
+      <c r="L219" s="4"/>
+      <c r="M219" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N219" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O219" s="5"/>
-      <c r="P219" s="5"/>
-      <c r="Q219" s="5"/>
-      <c r="R219" s="5"/>
-      <c r="S219" s="5"/>
-      <c r="T219" s="5"/>
-      <c r="U219" s="5" t="s">
+      <c r="N219" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V219" s="5" t="s">
+      <c r="V219" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13424,9 +13080,7 @@
         <v>239</v>
       </c>
       <c r="K220" s="5"/>
-      <c r="L220" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L220" s="4"/>
       <c r="M220" s="5" t="s">
         <v>50</v>
       </c>
@@ -13474,9 +13128,7 @@
         <v>240</v>
       </c>
       <c r="K221" s="5"/>
-      <c r="L221" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L221" s="4"/>
       <c r="M221" s="5" t="s">
         <v>50</v>
       </c>
@@ -13530,9 +13182,7 @@
       <c r="K222" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L222" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>50</v>
       </c>
@@ -13586,9 +13236,7 @@
         <v>240</v>
       </c>
       <c r="K223" s="5"/>
-      <c r="L223" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>50</v>
       </c>
@@ -13640,9 +13288,7 @@
         <v>240</v>
       </c>
       <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L224" s="4"/>
       <c r="M224" s="5" t="s">
         <v>50</v>
       </c>
@@ -13692,9 +13338,7 @@
         <v>240</v>
       </c>
       <c r="K225" s="5"/>
-      <c r="L225" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L225" s="4"/>
       <c r="M225" s="5" t="s">
         <v>50</v>
       </c>
@@ -13746,9 +13390,7 @@
       <c r="K226" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L226" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>50</v>
       </c>
@@ -13800,9 +13442,7 @@
         <v>240</v>
       </c>
       <c r="K227" s="5"/>
-      <c r="L227" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L227" s="4"/>
       <c r="M227" s="5" t="s">
         <v>50</v>
       </c>
@@ -13827,44 +13467,42 @@
       <c r="V227" s="5"/>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="5" t="s">
+      <c r="C228" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M228" s="5" t="s">
+      <c r="K228" s="2"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N228" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O228" s="5"/>
-      <c r="P228" s="5"/>
-      <c r="Q228" s="5"/>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
-      <c r="U228" s="5" t="s">
+      <c r="N228" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V228" s="5"/>
+      <c r="V228" s="2"/>
     </row>
     <row r="229" spans="1:22">
       <c r="A229" s="5" t="s">
@@ -13888,9 +13526,7 @@
         <v>239</v>
       </c>
       <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L229" s="4"/>
       <c r="M229" s="5" t="s">
         <v>30</v>
       </c>
@@ -13938,9 +13574,7 @@
         <v>240</v>
       </c>
       <c r="K230" s="5"/>
-      <c r="L230" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L230" s="4"/>
       <c r="M230" s="5" t="s">
         <v>30</v>
       </c>
@@ -13994,9 +13628,7 @@
       <c r="K231" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L231" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L231" s="4"/>
       <c r="M231" s="5" t="s">
         <v>30</v>
       </c>
@@ -14023,48 +13655,46 @@
       </c>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C232" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D232" s="5" t="s">
+      <c r="C232" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="5" t="s">
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K232" s="5"/>
-      <c r="L232" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M232" s="5" t="s">
+      <c r="K232" s="2"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N232" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O232" s="5" t="s">
+      <c r="N232" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O232" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P232" s="5"/>
-      <c r="Q232" s="5"/>
-      <c r="R232" s="5"/>
-      <c r="S232" s="5"/>
-      <c r="T232" s="5"/>
-      <c r="U232" s="5" t="s">
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V232" s="5"/>
+      <c r="V232" s="2"/>
     </row>
     <row r="233" spans="1:22">
       <c r="A233" s="5" t="s">
@@ -14094,9 +13724,7 @@
       <c r="K233" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L233" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L233" s="4"/>
       <c r="M233" s="5" t="s">
         <v>31</v>
       </c>
@@ -14150,9 +13778,7 @@
         <v>252</v>
       </c>
       <c r="K234" s="5"/>
-      <c r="L234" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L234" s="4"/>
       <c r="M234" s="5" t="s">
         <v>31</v>
       </c>
@@ -14206,9 +13832,7 @@
         <v>252</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>31</v>
       </c>
@@ -14262,9 +13886,7 @@
         <v>249</v>
       </c>
       <c r="K236" s="5"/>
-      <c r="L236" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L236" s="4"/>
       <c r="M236" s="5" t="s">
         <v>31</v>
       </c>
@@ -14291,46 +13913,44 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C237" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="C237" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K237" s="5" t="s">
+      <c r="K237" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L237" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M237" s="5" t="s">
+      <c r="L237" s="4"/>
+      <c r="M237" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N237" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O237" s="5"/>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="N237" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V237" s="5" t="s">
+      <c r="V237" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -14356,9 +13976,7 @@
         <v>239</v>
       </c>
       <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L238" s="4"/>
       <c r="M238" s="5" t="s">
         <v>51</v>
       </c>
@@ -14406,9 +14024,7 @@
         <v>240</v>
       </c>
       <c r="K239" s="5"/>
-      <c r="L239" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L239" s="4"/>
       <c r="M239" s="5" t="s">
         <v>51</v>
       </c>
@@ -14462,9 +14078,7 @@
       <c r="K240" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L240" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L240" s="4"/>
       <c r="M240" s="5" t="s">
         <v>51</v>
       </c>
@@ -14518,9 +14132,7 @@
         <v>240</v>
       </c>
       <c r="K241" s="5"/>
-      <c r="L241" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L241" s="4"/>
       <c r="M241" s="5" t="s">
         <v>51</v>
       </c>
@@ -14572,9 +14184,7 @@
         <v>240</v>
       </c>
       <c r="K242" s="5"/>
-      <c r="L242" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L242" s="4"/>
       <c r="M242" s="5" t="s">
         <v>51</v>
       </c>
@@ -14624,9 +14234,7 @@
         <v>240</v>
       </c>
       <c r="K243" s="5"/>
-      <c r="L243" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L243" s="4"/>
       <c r="M243" s="5" t="s">
         <v>51</v>
       </c>
@@ -14732,9 +14340,7 @@
         <v>240</v>
       </c>
       <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L245" s="4"/>
       <c r="M245" s="5" t="s">
         <v>51</v>
       </c>
@@ -14759,44 +14365,42 @@
       <c r="V245" s="5"/>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5" t="s">
+      <c r="C246" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M246" s="5" t="s">
+      <c r="K246" s="2"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N246" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O246" s="5"/>
-      <c r="P246" s="5"/>
-      <c r="Q246" s="5"/>
-      <c r="R246" s="5"/>
-      <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
-      <c r="U246" s="5" t="s">
+      <c r="N246" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V246" s="5"/>
+      <c r="V246" s="2"/>
     </row>
     <row r="247" spans="1:22">
       <c r="A247" s="5" t="s">
@@ -14820,9 +14424,7 @@
         <v>239</v>
       </c>
       <c r="K247" s="5"/>
-      <c r="L247" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L247" s="4"/>
       <c r="M247" s="5" t="s">
         <v>30</v>
       </c>
@@ -14870,9 +14472,7 @@
         <v>240</v>
       </c>
       <c r="K248" s="5"/>
-      <c r="L248" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L248" s="4"/>
       <c r="M248" s="5" t="s">
         <v>30</v>
       </c>
@@ -14926,9 +14526,7 @@
       <c r="K249" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L249" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L249" s="4"/>
       <c r="M249" s="5" t="s">
         <v>30</v>
       </c>
@@ -14955,48 +14553,46 @@
       </c>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C250" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D250" s="5" t="s">
+      <c r="C250" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="5"/>
-      <c r="H250" s="5"/>
-      <c r="I250" s="5"/>
-      <c r="J250" s="5" t="s">
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K250" s="5"/>
-      <c r="L250" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M250" s="5" t="s">
+      <c r="K250" s="2"/>
+      <c r="L250" s="4"/>
+      <c r="M250" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N250" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O250" s="5" t="s">
+      <c r="N250" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O250" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P250" s="5"/>
-      <c r="Q250" s="5"/>
-      <c r="R250" s="5"/>
-      <c r="S250" s="5"/>
-      <c r="T250" s="5"/>
-      <c r="U250" s="5" t="s">
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="2"/>
+      <c r="T250" s="2"/>
+      <c r="U250" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V250" s="5"/>
+      <c r="V250" s="2"/>
     </row>
     <row r="251" spans="1:22">
       <c r="A251" s="5" t="s">
@@ -15026,9 +14622,7 @@
       <c r="K251" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L251" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L251" s="4"/>
       <c r="M251" s="5" t="s">
         <v>31</v>
       </c>
@@ -15082,9 +14676,7 @@
         <v>252</v>
       </c>
       <c r="K252" s="5"/>
-      <c r="L252" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L252" s="4"/>
       <c r="M252" s="5" t="s">
         <v>31</v>
       </c>
@@ -15138,9 +14730,7 @@
         <v>252</v>
       </c>
       <c r="K253" s="5"/>
-      <c r="L253" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L253" s="4"/>
       <c r="M253" s="5" t="s">
         <v>31</v>
       </c>
@@ -15194,9 +14784,7 @@
         <v>249</v>
       </c>
       <c r="K254" s="5"/>
-      <c r="L254" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L254" s="4"/>
       <c r="M254" s="5" t="s">
         <v>31</v>
       </c>
@@ -15223,46 +14811,44 @@
       <c r="V254" s="5"/>
     </row>
     <row r="255" spans="1:22">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B255" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C255" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="5"/>
-      <c r="J255" s="5" t="s">
+      <c r="C255" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K255" s="5" t="s">
+      <c r="K255" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L255" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M255" s="5" t="s">
+      <c r="L255" s="4"/>
+      <c r="M255" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N255" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O255" s="5"/>
-      <c r="P255" s="5"/>
-      <c r="Q255" s="5"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5" t="s">
+      <c r="N255" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O255" s="2"/>
+      <c r="P255" s="2"/>
+      <c r="Q255" s="2"/>
+      <c r="R255" s="2"/>
+      <c r="S255" s="2"/>
+      <c r="T255" s="2"/>
+      <c r="U255" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V255" s="5" t="s">
+      <c r="V255" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -15288,9 +14874,7 @@
         <v>239</v>
       </c>
       <c r="K256" s="5"/>
-      <c r="L256" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L256" s="4"/>
       <c r="M256" s="5" t="s">
         <v>52</v>
       </c>
@@ -15338,9 +14922,7 @@
         <v>240</v>
       </c>
       <c r="K257" s="5"/>
-      <c r="L257" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L257" s="4"/>
       <c r="M257" s="5" t="s">
         <v>52</v>
       </c>
@@ -15394,9 +14976,7 @@
       <c r="K258" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L258" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L258" s="4"/>
       <c r="M258" s="5" t="s">
         <v>52</v>
       </c>
@@ -15450,9 +15030,7 @@
         <v>240</v>
       </c>
       <c r="K259" s="5"/>
-      <c r="L259" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L259" s="4"/>
       <c r="M259" s="5" t="s">
         <v>52</v>
       </c>
@@ -15504,9 +15082,7 @@
         <v>240</v>
       </c>
       <c r="K260" s="5"/>
-      <c r="L260" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L260" s="4"/>
       <c r="M260" s="5" t="s">
         <v>52</v>
       </c>
@@ -15556,9 +15132,7 @@
         <v>240</v>
       </c>
       <c r="K261" s="5"/>
-      <c r="L261" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L261" s="4"/>
       <c r="M261" s="5" t="s">
         <v>52</v>
       </c>
@@ -15664,9 +15238,7 @@
         <v>240</v>
       </c>
       <c r="K263" s="5"/>
-      <c r="L263" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L263" s="4"/>
       <c r="M263" s="5" t="s">
         <v>52</v>
       </c>
@@ -15691,44 +15263,42 @@
       <c r="V263" s="5"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
-      <c r="I264" s="5"/>
-      <c r="J264" s="5" t="s">
+      <c r="C264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K264" s="5"/>
-      <c r="L264" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M264" s="5" t="s">
+      <c r="K264" s="2"/>
+      <c r="L264" s="4"/>
+      <c r="M264" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N264" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O264" s="5"/>
-      <c r="P264" s="5"/>
-      <c r="Q264" s="5"/>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5" t="s">
+      <c r="N264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O264" s="2"/>
+      <c r="P264" s="2"/>
+      <c r="Q264" s="2"/>
+      <c r="R264" s="2"/>
+      <c r="S264" s="2"/>
+      <c r="T264" s="2"/>
+      <c r="U264" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V264" s="5"/>
+      <c r="V264" s="2"/>
     </row>
     <row r="265" spans="1:22">
       <c r="A265" s="5" t="s">
@@ -15752,9 +15322,7 @@
         <v>239</v>
       </c>
       <c r="K265" s="5"/>
-      <c r="L265" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L265" s="4"/>
       <c r="M265" s="5" t="s">
         <v>30</v>
       </c>
@@ -15802,9 +15370,7 @@
         <v>240</v>
       </c>
       <c r="K266" s="5"/>
-      <c r="L266" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L266" s="4"/>
       <c r="M266" s="5" t="s">
         <v>30</v>
       </c>
@@ -15858,9 +15424,7 @@
       <c r="K267" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L267" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L267" s="4"/>
       <c r="M267" s="5" t="s">
         <v>30</v>
       </c>
@@ -15887,48 +15451,46 @@
       </c>
     </row>
     <row r="268" spans="1:22">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D268" s="5" t="s">
+      <c r="C268" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
-      <c r="G268" s="5"/>
-      <c r="H268" s="5"/>
-      <c r="I268" s="5"/>
-      <c r="J268" s="5" t="s">
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K268" s="5"/>
-      <c r="L268" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M268" s="5" t="s">
+      <c r="K268" s="2"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N268" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O268" s="5" t="s">
+      <c r="N268" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O268" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P268" s="5"/>
-      <c r="Q268" s="5"/>
-      <c r="R268" s="5"/>
-      <c r="S268" s="5"/>
-      <c r="T268" s="5"/>
-      <c r="U268" s="5" t="s">
+      <c r="P268" s="2"/>
+      <c r="Q268" s="2"/>
+      <c r="R268" s="2"/>
+      <c r="S268" s="2"/>
+      <c r="T268" s="2"/>
+      <c r="U268" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V268" s="5"/>
+      <c r="V268" s="2"/>
     </row>
     <row r="269" spans="1:22">
       <c r="A269" s="5" t="s">
@@ -15958,9 +15520,7 @@
       <c r="K269" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L269" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L269" s="4"/>
       <c r="M269" s="5" t="s">
         <v>31</v>
       </c>
@@ -16014,9 +15574,7 @@
         <v>252</v>
       </c>
       <c r="K270" s="5"/>
-      <c r="L270" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L270" s="4"/>
       <c r="M270" s="5" t="s">
         <v>31</v>
       </c>
@@ -16070,9 +15628,7 @@
         <v>252</v>
       </c>
       <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L271" s="4"/>
       <c r="M271" s="5" t="s">
         <v>31</v>
       </c>
@@ -16126,9 +15682,7 @@
         <v>249</v>
       </c>
       <c r="K272" s="5"/>
-      <c r="L272" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L272" s="4"/>
       <c r="M272" s="5" t="s">
         <v>31</v>
       </c>
@@ -16155,46 +15709,44 @@
       <c r="V272" s="5"/>
     </row>
     <row r="273" spans="1:22">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="5"/>
-      <c r="H273" s="5"/>
-      <c r="I273" s="5"/>
-      <c r="J273" s="5" t="s">
+      <c r="C273" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K273" s="5" t="s">
+      <c r="K273" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L273" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M273" s="5" t="s">
+      <c r="L273" s="4"/>
+      <c r="M273" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N273" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O273" s="5"/>
-      <c r="P273" s="5"/>
-      <c r="Q273" s="5"/>
-      <c r="R273" s="5"/>
-      <c r="S273" s="5"/>
-      <c r="T273" s="5"/>
-      <c r="U273" s="5" t="s">
+      <c r="N273" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="2"/>
+      <c r="R273" s="2"/>
+      <c r="S273" s="2"/>
+      <c r="T273" s="2"/>
+      <c r="U273" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V273" s="5" t="s">
+      <c r="V273" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -16220,9 +15772,7 @@
         <v>239</v>
       </c>
       <c r="K274" s="5"/>
-      <c r="L274" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L274" s="4"/>
       <c r="M274" s="5" t="s">
         <v>53</v>
       </c>
@@ -16270,9 +15820,7 @@
         <v>240</v>
       </c>
       <c r="K275" s="5"/>
-      <c r="L275" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L275" s="4"/>
       <c r="M275" s="5" t="s">
         <v>53</v>
       </c>
@@ -16326,9 +15874,7 @@
       <c r="K276" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L276" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L276" s="4"/>
       <c r="M276" s="5" t="s">
         <v>53</v>
       </c>
@@ -16382,9 +15928,7 @@
         <v>240</v>
       </c>
       <c r="K277" s="5"/>
-      <c r="L277" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L277" s="4"/>
       <c r="M277" s="5" t="s">
         <v>53</v>
       </c>
@@ -16436,9 +15980,7 @@
         <v>240</v>
       </c>
       <c r="K278" s="5"/>
-      <c r="L278" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L278" s="4"/>
       <c r="M278" s="5" t="s">
         <v>53</v>
       </c>
@@ -16488,9 +16030,7 @@
         <v>240</v>
       </c>
       <c r="K279" s="5"/>
-      <c r="L279" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L279" s="4"/>
       <c r="M279" s="5" t="s">
         <v>53</v>
       </c>
@@ -16596,9 +16136,7 @@
         <v>240</v>
       </c>
       <c r="K281" s="5"/>
-      <c r="L281" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L281" s="4"/>
       <c r="M281" s="5" t="s">
         <v>53</v>
       </c>
@@ -16623,44 +16161,42 @@
       <c r="V281" s="5"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
-      <c r="F282" s="5"/>
-      <c r="G282" s="5"/>
-      <c r="H282" s="5"/>
-      <c r="I282" s="5"/>
-      <c r="J282" s="5" t="s">
+      <c r="C282" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K282" s="5"/>
-      <c r="L282" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M282" s="5" t="s">
+      <c r="K282" s="2"/>
+      <c r="L282" s="4"/>
+      <c r="M282" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N282" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O282" s="5"/>
-      <c r="P282" s="5"/>
-      <c r="Q282" s="5"/>
-      <c r="R282" s="5"/>
-      <c r="S282" s="5"/>
-      <c r="T282" s="5"/>
-      <c r="U282" s="5" t="s">
+      <c r="N282" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O282" s="2"/>
+      <c r="P282" s="2"/>
+      <c r="Q282" s="2"/>
+      <c r="R282" s="2"/>
+      <c r="S282" s="2"/>
+      <c r="T282" s="2"/>
+      <c r="U282" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V282" s="5"/>
+      <c r="V282" s="2"/>
     </row>
     <row r="283" spans="1:22">
       <c r="A283" s="5" t="s">
@@ -16684,9 +16220,7 @@
         <v>239</v>
       </c>
       <c r="K283" s="5"/>
-      <c r="L283" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L283" s="4"/>
       <c r="M283" s="5" t="s">
         <v>30</v>
       </c>
@@ -16734,9 +16268,7 @@
         <v>240</v>
       </c>
       <c r="K284" s="5"/>
-      <c r="L284" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L284" s="4"/>
       <c r="M284" s="5" t="s">
         <v>30</v>
       </c>
@@ -16790,9 +16322,7 @@
       <c r="K285" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L285" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L285" s="4"/>
       <c r="M285" s="5" t="s">
         <v>30</v>
       </c>
@@ -16819,48 +16349,46 @@
       </c>
     </row>
     <row r="286" spans="1:22">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C286" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D286" s="5" t="s">
+      <c r="C286" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D286" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E286" s="5"/>
-      <c r="F286" s="5"/>
-      <c r="G286" s="5"/>
-      <c r="H286" s="5"/>
-      <c r="I286" s="5"/>
-      <c r="J286" s="5" t="s">
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K286" s="5"/>
-      <c r="L286" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M286" s="5" t="s">
+      <c r="K286" s="2"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N286" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O286" s="5" t="s">
+      <c r="N286" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O286" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P286" s="5"/>
-      <c r="Q286" s="5"/>
-      <c r="R286" s="5"/>
-      <c r="S286" s="5"/>
-      <c r="T286" s="5"/>
-      <c r="U286" s="5" t="s">
+      <c r="P286" s="2"/>
+      <c r="Q286" s="2"/>
+      <c r="R286" s="2"/>
+      <c r="S286" s="2"/>
+      <c r="T286" s="2"/>
+      <c r="U286" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V286" s="5"/>
+      <c r="V286" s="2"/>
     </row>
     <row r="287" spans="1:22">
       <c r="A287" s="5" t="s">
@@ -16890,9 +16418,7 @@
       <c r="K287" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L287" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L287" s="4"/>
       <c r="M287" s="5" t="s">
         <v>31</v>
       </c>
@@ -16946,9 +16472,7 @@
         <v>252</v>
       </c>
       <c r="K288" s="5"/>
-      <c r="L288" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L288" s="4"/>
       <c r="M288" s="5" t="s">
         <v>31</v>
       </c>
@@ -17002,9 +16526,7 @@
         <v>252</v>
       </c>
       <c r="K289" s="5"/>
-      <c r="L289" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L289" s="4"/>
       <c r="M289" s="5" t="s">
         <v>31</v>
       </c>
@@ -17058,9 +16580,7 @@
         <v>249</v>
       </c>
       <c r="K290" s="5"/>
-      <c r="L290" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L290" s="4"/>
       <c r="M290" s="5" t="s">
         <v>31</v>
       </c>
@@ -17087,46 +16607,44 @@
       <c r="V290" s="5"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B291" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C291" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
-      <c r="F291" s="5"/>
-      <c r="G291" s="5"/>
-      <c r="H291" s="5"/>
-      <c r="I291" s="5"/>
-      <c r="J291" s="5" t="s">
+      <c r="C291" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2"/>
+      <c r="I291" s="2"/>
+      <c r="J291" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K291" s="5" t="s">
+      <c r="K291" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L291" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M291" s="5" t="s">
+      <c r="L291" s="4"/>
+      <c r="M291" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N291" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O291" s="5"/>
-      <c r="P291" s="5"/>
-      <c r="Q291" s="5"/>
-      <c r="R291" s="5"/>
-      <c r="S291" s="5"/>
-      <c r="T291" s="5"/>
-      <c r="U291" s="5" t="s">
+      <c r="N291" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O291" s="2"/>
+      <c r="P291" s="2"/>
+      <c r="Q291" s="2"/>
+      <c r="R291" s="2"/>
+      <c r="S291" s="2"/>
+      <c r="T291" s="2"/>
+      <c r="U291" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V291" s="5" t="s">
+      <c r="V291" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -17152,9 +16670,7 @@
         <v>239</v>
       </c>
       <c r="K292" s="5"/>
-      <c r="L292" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L292" s="4"/>
       <c r="M292" s="5" t="s">
         <v>54</v>
       </c>
@@ -17202,9 +16718,7 @@
         <v>240</v>
       </c>
       <c r="K293" s="5"/>
-      <c r="L293" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L293" s="4"/>
       <c r="M293" s="5" t="s">
         <v>54</v>
       </c>
@@ -17258,9 +16772,7 @@
       <c r="K294" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L294" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L294" s="4"/>
       <c r="M294" s="5" t="s">
         <v>54</v>
       </c>
@@ -17314,9 +16826,7 @@
         <v>240</v>
       </c>
       <c r="K295" s="5"/>
-      <c r="L295" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L295" s="4"/>
       <c r="M295" s="5" t="s">
         <v>54</v>
       </c>
@@ -17368,9 +16878,7 @@
         <v>240</v>
       </c>
       <c r="K296" s="5"/>
-      <c r="L296" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L296" s="4"/>
       <c r="M296" s="5" t="s">
         <v>54</v>
       </c>
@@ -17420,9 +16928,7 @@
         <v>240</v>
       </c>
       <c r="K297" s="5"/>
-      <c r="L297" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L297" s="4"/>
       <c r="M297" s="5" t="s">
         <v>54</v>
       </c>
@@ -17474,9 +16980,7 @@
       <c r="K298" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L298" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L298" s="4"/>
       <c r="M298" s="5" t="s">
         <v>54</v>
       </c>
@@ -17528,9 +17032,7 @@
         <v>240</v>
       </c>
       <c r="K299" s="5"/>
-      <c r="L299" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L299" s="4"/>
       <c r="M299" s="5" t="s">
         <v>54</v>
       </c>
@@ -17555,44 +17057,42 @@
       <c r="V299" s="5"/>
     </row>
     <row r="300" spans="1:22">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C300" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
-      <c r="F300" s="5"/>
-      <c r="G300" s="5"/>
-      <c r="H300" s="5"/>
-      <c r="I300" s="5"/>
-      <c r="J300" s="5" t="s">
+      <c r="C300" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K300" s="5"/>
-      <c r="L300" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M300" s="5" t="s">
+      <c r="K300" s="2"/>
+      <c r="L300" s="4"/>
+      <c r="M300" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N300" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O300" s="5"/>
-      <c r="P300" s="5"/>
-      <c r="Q300" s="5"/>
-      <c r="R300" s="5"/>
-      <c r="S300" s="5"/>
-      <c r="T300" s="5"/>
-      <c r="U300" s="5" t="s">
+      <c r="N300" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O300" s="2"/>
+      <c r="P300" s="2"/>
+      <c r="Q300" s="2"/>
+      <c r="R300" s="2"/>
+      <c r="S300" s="2"/>
+      <c r="T300" s="2"/>
+      <c r="U300" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V300" s="5"/>
+      <c r="V300" s="2"/>
     </row>
     <row r="301" spans="1:22">
       <c r="A301" s="5" t="s">
@@ -17616,9 +17116,7 @@
         <v>239</v>
       </c>
       <c r="K301" s="5"/>
-      <c r="L301" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L301" s="4"/>
       <c r="M301" s="5" t="s">
         <v>30</v>
       </c>
@@ -17666,9 +17164,7 @@
         <v>240</v>
       </c>
       <c r="K302" s="5"/>
-      <c r="L302" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L302" s="4"/>
       <c r="M302" s="5" t="s">
         <v>30</v>
       </c>
@@ -17722,9 +17218,7 @@
       <c r="K303" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L303" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L303" s="4"/>
       <c r="M303" s="5" t="s">
         <v>30</v>
       </c>
@@ -17751,48 +17245,46 @@
       </c>
     </row>
     <row r="304" spans="1:22">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="B304" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D304" s="5" t="s">
+      <c r="C304" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E304" s="5"/>
-      <c r="F304" s="5"/>
-      <c r="G304" s="5"/>
-      <c r="H304" s="5"/>
-      <c r="I304" s="5"/>
-      <c r="J304" s="5" t="s">
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K304" s="5"/>
-      <c r="L304" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M304" s="5" t="s">
+      <c r="K304" s="2"/>
+      <c r="L304" s="4"/>
+      <c r="M304" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N304" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O304" s="5" t="s">
+      <c r="N304" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O304" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P304" s="5"/>
-      <c r="Q304" s="5"/>
-      <c r="R304" s="5"/>
-      <c r="S304" s="5"/>
-      <c r="T304" s="5"/>
-      <c r="U304" s="5" t="s">
+      <c r="P304" s="2"/>
+      <c r="Q304" s="2"/>
+      <c r="R304" s="2"/>
+      <c r="S304" s="2"/>
+      <c r="T304" s="2"/>
+      <c r="U304" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V304" s="5"/>
+      <c r="V304" s="2"/>
     </row>
     <row r="305" spans="1:22">
       <c r="A305" s="5" t="s">
@@ -17822,9 +17314,7 @@
       <c r="K305" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L305" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L305" s="4"/>
       <c r="M305" s="5" t="s">
         <v>31</v>
       </c>
@@ -17878,9 +17368,7 @@
         <v>252</v>
       </c>
       <c r="K306" s="5"/>
-      <c r="L306" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L306" s="4"/>
       <c r="M306" s="5" t="s">
         <v>31</v>
       </c>
@@ -17934,9 +17422,7 @@
         <v>252</v>
       </c>
       <c r="K307" s="5"/>
-      <c r="L307" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L307" s="4"/>
       <c r="M307" s="5" t="s">
         <v>31</v>
       </c>
@@ -17990,9 +17476,7 @@
         <v>249</v>
       </c>
       <c r="K308" s="5"/>
-      <c r="L308" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L308" s="4"/>
       <c r="M308" s="5" t="s">
         <v>31</v>
       </c>
@@ -18019,44 +17503,42 @@
       <c r="V308" s="5"/>
     </row>
     <row r="309" spans="1:22">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="B309" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C309" s="5"/>
-      <c r="D309" s="5" t="s">
+      <c r="C309" s="2"/>
+      <c r="D309" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E309" s="5"/>
-      <c r="F309" s="5"/>
-      <c r="G309" s="5"/>
-      <c r="H309" s="5"/>
-      <c r="I309" s="5"/>
-      <c r="J309" s="5" t="s">
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+      <c r="J309" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K309" s="5"/>
-      <c r="L309" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M309" s="5" t="s">
+      <c r="K309" s="2"/>
+      <c r="L309" s="4"/>
+      <c r="M309" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N309" s="5"/>
-      <c r="O309" s="5" t="s">
+      <c r="N309" s="2"/>
+      <c r="O309" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P309" s="5"/>
-      <c r="Q309" s="5"/>
-      <c r="R309" s="5"/>
-      <c r="S309" s="5"/>
-      <c r="T309" s="5"/>
-      <c r="U309" s="5" t="s">
+      <c r="P309" s="2"/>
+      <c r="Q309" s="2"/>
+      <c r="R309" s="2"/>
+      <c r="S309" s="2"/>
+      <c r="T309" s="2"/>
+      <c r="U309" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V309" s="5"/>
+      <c r="V309" s="2"/>
     </row>
     <row r="310" spans="1:22">
       <c r="A310" s="5" t="s">
@@ -18082,9 +17564,7 @@
         <v>240</v>
       </c>
       <c r="K310" s="5"/>
-      <c r="L310" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L310" s="4"/>
       <c r="M310" s="5" t="s">
         <v>55</v>
       </c>
@@ -18130,9 +17610,7 @@
         <v>240</v>
       </c>
       <c r="K311" s="5"/>
-      <c r="L311" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L311" s="4"/>
       <c r="M311" s="5" t="s">
         <v>55</v>
       </c>

--- a/data/output/FV2304_FV2210/PARTIN/37000.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37000.xlsx
@@ -1912,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1946,6 +1946,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2383,7 +2386,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2719,7 +2722,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2907,7 +2910,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3095,7 +3098,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3263,46 +3266,46 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5" t="s">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V21" s="5"/>
+      <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="5" t="s">
@@ -3477,7 +3480,7 @@
         <v>268</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3657,48 +3660,48 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="2" t="s">
         <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O29" s="6"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3871,7 +3874,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4167,7 +4170,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4353,7 +4356,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4717,7 +4720,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5013,7 +5016,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5103,7 +5106,7 @@
         <v>271</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5549,7 +5552,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6056,7 +6059,7 @@
       <c r="A78" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -6174,7 +6177,7 @@
       <c r="A81" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -6311,7 +6314,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6459,7 +6462,7 @@
         <v>273</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6657,7 +6660,7 @@
         <v>274</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6899,7 +6902,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7047,7 +7050,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7183,7 +7186,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7657,7 +7660,7 @@
         <v>271</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8107,7 +8110,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8297,7 +8300,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8555,7 +8558,7 @@
         <v>271</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9005,7 +9008,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9195,7 +9198,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9453,7 +9456,7 @@
         <v>281</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9901,7 +9904,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10091,7 +10094,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10349,7 +10352,7 @@
         <v>271</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10797,7 +10800,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10987,7 +10990,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11245,7 +11248,7 @@
         <v>271</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11693,7 +11696,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -11883,7 +11886,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12141,7 +12144,7 @@
         <v>271</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -12591,7 +12594,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -12781,7 +12784,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -13039,7 +13042,7 @@
         <v>271</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -13487,7 +13490,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -13677,7 +13680,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -13935,7 +13938,7 @@
         <v>271</v>
       </c>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -14385,7 +14388,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -14575,7 +14578,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -14833,7 +14836,7 @@
         <v>271</v>
       </c>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -15283,7 +15286,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -15473,7 +15476,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -15731,7 +15734,7 @@
         <v>271</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -16181,7 +16184,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -16371,7 +16374,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -16629,7 +16632,7 @@
         <v>271</v>
       </c>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -17077,7 +17080,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -17267,7 +17270,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -17523,7 +17526,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N309" s="2"/>
